--- a/data/576/576_series.xlsx
+++ b/data/576/576_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\576\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698E344-808D-43C8-9A01-F9DC129E8EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D4AB8-101D-4B12-B116-15F31E3054B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -3201,18 +3209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M015171</t>
-  </si>
-  <si>
-    <t>M015241</t>
-  </si>
-  <si>
-    <t>M015161</t>
-  </si>
-  <si>
-    <t>M015231</t>
-  </si>
-  <si>
     <t>M015021</t>
   </si>
   <si>
@@ -3742,6 +3738,18 @@
   </si>
   <si>
     <t>prime_lending_rate</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product At Current Prices By Industry Annual</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product In Chained Dollars By Industry Annual</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product At Current Prices By Industry Quarterly</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product In Chained Dollars By Industry Quarterly</t>
   </si>
 </sst>
 </file>
@@ -4104,7 +4112,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4185,7 +4193,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>720</v>
@@ -4220,7 +4228,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>707</v>
@@ -4255,7 +4263,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>708</v>
@@ -4290,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>710</v>
@@ -4325,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>721</v>
@@ -4360,7 +4368,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>722</v>
@@ -4395,10 +4403,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4427,10 +4435,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4459,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>692</v>
@@ -4491,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>693</v>
@@ -4523,7 +4531,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>690</v>
@@ -4555,7 +4563,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>62</v>
@@ -4587,7 +4595,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>691</v>
@@ -4619,7 +4627,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>694</v>
@@ -4651,7 +4659,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>695</v>
@@ -4683,7 +4691,7 @@
         <v>689</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>696</v>
@@ -4715,7 +4723,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>697</v>
@@ -4747,7 +4755,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>698</v>
@@ -4779,7 +4787,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>704</v>
@@ -4811,7 +4819,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>699</v>
@@ -4843,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>700</v>
@@ -4875,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>726</v>
+        <v>867</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>701</v>
@@ -4907,7 +4915,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>707</v>
@@ -4939,7 +4947,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>708</v>
@@ -4971,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>710</v>
@@ -5003,7 +5011,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>711</v>
@@ -5035,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>713</v>
@@ -5067,7 +5075,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>715</v>
@@ -5099,7 +5107,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>717</v>
@@ -5131,7 +5139,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>719</v>
@@ -5142,7 +5150,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
@@ -5163,10 +5171,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5195,10 +5203,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5227,10 +5235,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5259,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>690</v>
@@ -5291,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>62</v>
@@ -5323,7 +5331,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>691</v>
@@ -5355,7 +5363,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>694</v>
@@ -5387,7 +5395,7 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>696</v>
@@ -5419,7 +5427,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>697</v>
@@ -5451,7 +5459,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>698</v>
@@ -5483,7 +5491,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>704</v>
@@ -5515,7 +5523,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>699</v>
@@ -5547,7 +5555,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>701</v>
@@ -5579,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>706</v>
@@ -5611,7 +5619,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>707</v>
@@ -5643,7 +5651,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>708</v>
@@ -5675,7 +5683,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>710</v>
@@ -5707,7 +5715,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>711</v>
@@ -5739,7 +5747,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>713</v>
@@ -5771,7 +5779,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>715</v>
@@ -5803,7 +5811,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>717</v>
@@ -5835,7 +5843,7 @@
         <v>689</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>719</v>
@@ -5851,11 +5859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5936,10 +5944,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5971,10 +5979,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6003,7 +6011,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>692</v>
@@ -6035,7 +6043,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>690</v>
@@ -6067,7 +6075,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -6099,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>691</v>
@@ -6131,7 +6139,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>694</v>
@@ -6163,7 +6171,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>696</v>
@@ -6195,7 +6203,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>697</v>
@@ -6227,7 +6235,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>698</v>
@@ -6259,7 +6267,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>704</v>
@@ -6291,7 +6299,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>699</v>
@@ -6323,7 +6331,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>701</v>
@@ -6355,7 +6363,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>707</v>
@@ -6387,7 +6395,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>702</v>
@@ -6419,7 +6427,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>709</v>
@@ -6451,7 +6459,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>703</v>
@@ -6483,7 +6491,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>712</v>
@@ -6515,7 +6523,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>714</v>
@@ -6547,7 +6555,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>716</v>
@@ -6579,7 +6587,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>718</v>
@@ -6611,10 +6619,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6643,10 +6651,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6675,10 +6683,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6707,10 +6715,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6739,10 +6747,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6771,10 +6779,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6803,10 +6811,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6835,10 +6843,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6867,10 +6875,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6899,10 +6907,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6931,10 +6939,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6963,10 +6971,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6995,10 +7003,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -7027,10 +7035,10 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -7059,10 +7067,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -7091,10 +7099,10 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -7123,10 +7131,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -7155,10 +7163,10 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -7187,7 +7195,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>690</v>
@@ -7219,7 +7227,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>62</v>
@@ -7251,7 +7259,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>691</v>
@@ -7283,7 +7291,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>694</v>
@@ -7315,7 +7323,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>696</v>
@@ -7347,7 +7355,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>697</v>
@@ -7379,7 +7387,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>698</v>
@@ -7411,7 +7419,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>704</v>
@@ -7443,7 +7451,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>699</v>
@@ -7475,7 +7483,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>705</v>
@@ -7492,7 +7500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7550,10 +7558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C2" t="s">
         <v>361</v>
@@ -7571,13 +7579,13 @@
         <v>363</v>
       </c>
       <c r="I2" t="s">
+        <v>853</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>861</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7609,7 +7617,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>366</v>
@@ -7644,7 +7652,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>370</v>
@@ -7676,10 +7684,10 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7708,10 +7716,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7740,10 +7748,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7772,10 +7780,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7804,10 +7812,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7836,10 +7844,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7847,7 +7855,7 @@
         <v>399</v>
       </c>
       <c r="B11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C11" t="s">
         <v>397</v>
@@ -7868,10 +7876,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7879,7 +7887,7 @@
         <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C12" t="s">
         <v>400</v>
@@ -7900,10 +7908,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7932,10 +7940,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7964,10 +7972,10 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7996,10 +8004,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8028,10 +8036,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8060,10 +8068,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8092,10 +8100,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8124,10 +8132,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8156,10 +8164,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8188,10 +8196,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8220,10 +8228,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8252,10 +8260,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8284,10 +8292,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8316,10 +8324,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8348,10 +8356,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8380,10 +8388,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8412,10 +8420,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8444,10 +8452,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8476,10 +8484,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8508,10 +8516,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8540,10 +8548,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8572,10 +8580,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8604,10 +8612,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8636,10 +8644,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8668,10 +8676,10 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8700,10 +8708,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8732,10 +8740,10 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8764,10 +8772,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8799,10 +8807,10 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8834,7 +8842,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>493</v>
@@ -8869,10 +8877,10 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8904,10 +8912,10 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8939,10 +8947,10 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8974,10 +8982,10 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9009,10 +9017,10 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9044,10 +9052,10 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9079,7 +9087,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>493</v>
@@ -9114,10 +9122,10 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9149,10 +9157,10 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9184,10 +9192,10 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9219,10 +9227,10 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9254,10 +9262,10 @@
         <v>17</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9289,10 +9297,10 @@
         <v>17</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9324,10 +9332,10 @@
         <v>17</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9359,10 +9367,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9394,10 +9402,10 @@
         <v>17</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9429,10 +9437,10 @@
         <v>17</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9464,10 +9472,10 @@
         <v>17</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9499,10 +9507,10 @@
         <v>17</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9534,10 +9542,10 @@
         <v>17</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9569,10 +9577,10 @@
         <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9604,10 +9612,10 @@
         <v>17</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9639,10 +9647,10 @@
         <v>17</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9674,10 +9682,10 @@
         <v>17</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9709,7 +9717,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>493</v>
@@ -9744,7 +9752,7 @@
         <v>17</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>39</v>
@@ -9779,7 +9787,7 @@
         <v>17</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>39</v>
@@ -9814,7 +9822,7 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>594</v>
@@ -9849,10 +9857,10 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9884,10 +9892,10 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9919,10 +9927,10 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9954,10 +9962,10 @@
         <v>17</v>
       </c>
       <c r="J73" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9989,10 +9997,10 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -10024,10 +10032,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -10059,10 +10067,10 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -10094,10 +10102,10 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -10129,10 +10137,10 @@
         <v>17</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -10164,10 +10172,10 @@
         <v>17</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10199,10 +10207,10 @@
         <v>17</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10231,10 +10239,10 @@
         <v>17</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10242,7 +10250,7 @@
         <v>645</v>
       </c>
       <c r="B82" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C82" t="s">
         <v>643</v>
@@ -10260,13 +10268,13 @@
         <v>137</v>
       </c>
       <c r="I82" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10295,10 +10303,10 @@
         <v>17</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10327,10 +10335,10 @@
         <v>17</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10359,10 +10367,10 @@
         <v>17</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10391,10 +10399,10 @@
         <v>17</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -10423,10 +10431,10 @@
         <v>17</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10455,10 +10463,10 @@
         <v>17</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10466,7 +10474,7 @@
         <v>671</v>
       </c>
       <c r="B89" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C89" t="s">
         <v>669</v>
@@ -10487,10 +10495,10 @@
         <v>364</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -10519,10 +10527,10 @@
         <v>364</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -10551,10 +10559,10 @@
         <v>364</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -10583,10 +10591,10 @@
         <v>364</v>
       </c>
       <c r="J92" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -10652,10 +10660,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
         <v>684</v>
@@ -10676,7 +10684,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -10764,7 +10772,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/data/576/576_series.xlsx
+++ b/data/576/576_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\576\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D4AB8-101D-4B12-B116-15F31E3054B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6E14E-E6DF-4135-9D82-305EE15A0B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="D" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$A$1:$K$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">M!$A$1:$K$92</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="871">
   <si>
     <t>Short Label</t>
   </si>
@@ -3209,18 +3210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M015021</t>
-  </si>
-  <si>
-    <t>M014921</t>
-  </si>
-  <si>
-    <t>M014911</t>
-  </si>
-  <si>
-    <t>M014811</t>
-  </si>
-  <si>
     <t>JPSHARE_SG_5.W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3233,16 +3222,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M212931</t>
-  </si>
-  <si>
     <t>AllItems</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M182331</t>
-  </si>
-  <si>
     <t>TotalLabourForce</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3251,30 +3234,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M182941</t>
-  </si>
-  <si>
     <t>OverallEconomy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M183591</t>
-  </si>
-  <si>
     <t>UnitLabourCostOfManufacturing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M212261</t>
-  </si>
-  <si>
     <t>ResidentialProperties</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M060171</t>
-  </si>
-  <si>
     <t>DOverallBalance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3406,10 +3377,6 @@
     <t>M450081</t>
   </si>
   <si>
-    <t>TotalDomesticExportsNon-oil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M451002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3417,9 +3384,6 @@
     <t>M451082</t>
   </si>
   <si>
-    <t>TotalNon-oilRetainedImportsOfIntermediateGoods</t>
-  </si>
-  <si>
     <t>M451001</t>
   </si>
   <si>
@@ -3427,10 +3391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TotalMerchandiseImportsNon-oil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalMerchandiseExportsFood&amp;LiveAnimals</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3539,10 +3499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TotalRe-exportsTotalRe-exports</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M212701</t>
   </si>
   <si>
@@ -3586,9 +3542,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M355271</t>
-  </si>
-  <si>
     <t>WearingApparel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3612,10 +3565,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Non-metallicMineralProducts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicMetals</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3632,9 +3581,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M355301</t>
-  </si>
-  <si>
     <t>ElectronicsCluster</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3643,12 +3589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M355302</t>
-  </si>
-  <si>
-    <t>M700011</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -3662,13 +3602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Quasi-money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M700001</t>
-  </si>
-  <si>
     <t>GrossCirculation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3740,16 +3673,87 @@
     <t>prime_lending_rate</t>
   </si>
   <si>
-    <t>Gross Domestic Product At Current Prices By Industry Annual</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product In Chained Dollars By Industry Annual</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product At Current Prices By Industry Quarterly</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product In Chained Dollars By Industry Quarterly</t>
+    <t>TotalDomesticExportsNon-Oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMerchandiseImportsNon-Oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalNon-OilRetainedImportsOfIntermediateGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalRe-ExportsTotalRe-Exports</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-MetallicMineralProducts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quasi-Money-Total</t>
+  </si>
+  <si>
+    <t>M182941 - Average Monthly Nominal Earnings Per Employee Annual</t>
+  </si>
+  <si>
+    <t>M014921 - Expenditure On Gross Domestic Product Deflators Annual</t>
+  </si>
+  <si>
+    <t>M212931 - Consumer Price Index Annual</t>
+  </si>
+  <si>
+    <t>M182331 - Labour Force Aged 15 Years And Over End June Annual</t>
+  </si>
+  <si>
+    <t>M015721 - Gross Domestic Product In Chained Dollars By Industry Annual</t>
+  </si>
+  <si>
+    <t>M014911 - Expenditure On Gross Domestic Product In Chained Dollars Annual</t>
+  </si>
+  <si>
+    <t>M015731 - Gross Domestic Product At Current Prices By Industry Annual</t>
+  </si>
+  <si>
+    <t>M015021 - Expenditure On Gross Domestic Product At Current Prices Annual</t>
+  </si>
+  <si>
+    <t>M212261 - Private Residential Property Price Index By Type Of Property Quarterly</t>
+  </si>
+  <si>
+    <t>M183591 - Unit Labour Cost Index Quarterly</t>
+  </si>
+  <si>
+    <t>M015661 - Gross Domestic Product In Chained Dollars By Industry Quarterly</t>
+  </si>
+  <si>
+    <t>M014811 - Expenditure On Gross Domestic Product In Chained Dollars Quarterly</t>
+  </si>
+  <si>
+    <t>M060171 - Balance Of Payments BPM6 Format Quarterly</t>
+  </si>
+  <si>
+    <t>M015651 - Gross Domestic Product At Current Prices By Industry Quarterly</t>
+  </si>
+  <si>
+    <t>M212701 - Domestic Supply Price Index By Commodity Section 1-Digit Level Monthly</t>
+  </si>
+  <si>
+    <t>M355301 - Index Of Industrial Production By Industry Cluster Monthly</t>
+  </si>
+  <si>
+    <t>M355271 - Index Of Industrial Production Monthly</t>
+  </si>
+  <si>
+    <t>M355302 - Index Of Industrial Production By Industry Cluster Monthly Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>M700011 - Money Supply End Of Period Monthly</t>
+  </si>
+  <si>
+    <t>M700001 - Currency In Circulation End Of Period Monthly</t>
   </si>
 </sst>
 </file>
@@ -4108,11 +4112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4126,7 +4130,8 @@
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="34.875" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="46.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4193,7 +4198,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>720</v>
@@ -4228,7 +4233,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>707</v>
@@ -4263,7 +4268,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>708</v>
@@ -4298,7 +4303,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>710</v>
@@ -4333,7 +4338,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>721</v>
@@ -4368,7 +4373,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>722</v>
@@ -4403,10 +4408,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>730</v>
+        <v>853</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4435,10 +4440,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>732</v>
+        <v>854</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4467,7 +4472,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>692</v>
@@ -4499,7 +4504,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>693</v>
@@ -4531,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>690</v>
@@ -4563,7 +4568,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>62</v>
@@ -4595,7 +4600,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>691</v>
@@ -4627,7 +4632,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>694</v>
@@ -4659,7 +4664,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>695</v>
@@ -4691,7 +4696,7 @@
         <v>689</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>696</v>
@@ -4723,7 +4728,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>697</v>
@@ -4755,7 +4760,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>698</v>
@@ -4787,7 +4792,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>704</v>
@@ -4819,7 +4824,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>699</v>
@@ -4851,7 +4856,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>700</v>
@@ -4883,7 +4888,7 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>701</v>
@@ -4915,7 +4920,7 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>707</v>
@@ -4947,7 +4952,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>708</v>
@@ -4979,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>710</v>
@@ -5011,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>711</v>
@@ -5043,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>713</v>
@@ -5075,7 +5080,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>715</v>
@@ -5107,7 +5112,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>717</v>
@@ -5139,7 +5144,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>719</v>
@@ -5150,7 +5155,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
@@ -5171,10 +5176,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5203,10 +5208,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>732</v>
+        <v>854</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5235,10 +5240,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>735</v>
+        <v>851</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5267,7 +5272,7 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>690</v>
@@ -5299,7 +5304,7 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>62</v>
@@ -5331,7 +5336,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>691</v>
@@ -5363,7 +5368,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>694</v>
@@ -5395,7 +5400,7 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>696</v>
@@ -5427,7 +5432,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>697</v>
@@ -5459,7 +5464,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>698</v>
@@ -5491,7 +5496,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>704</v>
@@ -5523,7 +5528,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>699</v>
@@ -5555,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>701</v>
@@ -5587,7 +5592,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>706</v>
@@ -5619,7 +5624,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>707</v>
@@ -5651,7 +5656,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>708</v>
@@ -5683,7 +5688,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>710</v>
@@ -5715,7 +5720,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>711</v>
@@ -5747,7 +5752,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>713</v>
@@ -5779,7 +5784,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>715</v>
@@ -5811,7 +5816,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>717</v>
@@ -5843,13 +5848,14 @@
         <v>689</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>719</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5859,11 +5865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5877,7 +5883,8 @@
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="34.625" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="51.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5944,10 +5951,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>739</v>
+        <v>859</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5979,10 +5986,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>737</v>
+        <v>860</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6011,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>692</v>
@@ -6043,7 +6050,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>690</v>
@@ -6075,7 +6082,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -6107,7 +6114,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>691</v>
@@ -6139,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>694</v>
@@ -6171,7 +6178,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>696</v>
@@ -6203,7 +6210,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>697</v>
@@ -6235,7 +6242,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>698</v>
@@ -6267,7 +6274,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>704</v>
@@ -6299,7 +6306,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>699</v>
@@ -6331,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>701</v>
@@ -6363,7 +6370,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>707</v>
@@ -6395,7 +6402,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>702</v>
@@ -6427,7 +6434,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>709</v>
@@ -6459,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>703</v>
@@ -6491,7 +6498,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>712</v>
@@ -6523,7 +6530,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>714</v>
@@ -6555,7 +6562,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>716</v>
@@ -6587,7 +6594,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>726</v>
+        <v>862</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>718</v>
@@ -6619,10 +6626,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6651,10 +6658,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6683,10 +6690,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6715,10 +6722,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6747,10 +6754,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6779,10 +6786,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6811,10 +6818,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6843,10 +6850,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6875,10 +6882,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6907,10 +6914,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6939,10 +6946,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6971,10 +6978,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -7003,10 +7010,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -7035,10 +7042,10 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -7067,10 +7074,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -7099,10 +7106,10 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -7131,10 +7138,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -7163,10 +7170,10 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>741</v>
+        <v>863</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -7195,7 +7202,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>690</v>
@@ -7227,7 +7234,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>62</v>
@@ -7259,7 +7266,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>691</v>
@@ -7291,7 +7298,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>694</v>
@@ -7323,7 +7330,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>696</v>
@@ -7355,7 +7362,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>697</v>
@@ -7387,7 +7394,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>698</v>
@@ -7419,7 +7426,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>704</v>
@@ -7451,7 +7458,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>699</v>
@@ -7483,7 +7490,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>705</v>
@@ -7501,10 +7508,10 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7518,7 +7525,8 @@
     <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="36.125" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="41.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7558,10 +7566,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="C2" t="s">
         <v>361</v>
@@ -7579,13 +7587,13 @@
         <v>363</v>
       </c>
       <c r="I2" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7617,7 +7625,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>366</v>
@@ -7652,7 +7660,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>370</v>
@@ -7684,10 +7692,10 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7716,10 +7724,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7748,10 +7756,10 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7780,10 +7788,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>779</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7812,10 +7820,10 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7844,10 +7852,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7855,7 +7863,7 @@
         <v>399</v>
       </c>
       <c r="B11" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="C11" t="s">
         <v>397</v>
@@ -7876,10 +7884,10 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7887,7 +7895,7 @@
         <v>402</v>
       </c>
       <c r="B12" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C12" t="s">
         <v>400</v>
@@ -7908,10 +7916,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7940,10 +7948,10 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7972,10 +7980,10 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8004,10 +8012,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8036,10 +8044,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8068,10 +8076,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8100,10 +8108,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8132,10 +8140,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8164,10 +8172,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8196,10 +8204,10 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8228,10 +8236,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8260,10 +8268,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8292,10 +8300,10 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8324,10 +8332,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8356,10 +8364,10 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8388,10 +8396,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8420,10 +8428,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8452,10 +8460,10 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8484,10 +8492,10 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8516,10 +8524,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8548,10 +8556,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8580,10 +8588,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8612,10 +8620,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8644,10 +8652,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8676,10 +8684,10 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8708,10 +8716,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8740,10 +8748,10 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8772,10 +8780,10 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8807,10 +8815,10 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8842,7 +8850,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>493</v>
@@ -8877,10 +8885,10 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8912,10 +8920,10 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8947,10 +8955,10 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8982,10 +8990,10 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9017,10 +9025,10 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9052,10 +9060,10 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9087,7 +9095,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>493</v>
@@ -9122,10 +9130,10 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9157,10 +9165,10 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9192,10 +9200,10 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9227,10 +9235,10 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9262,10 +9270,10 @@
         <v>17</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9297,10 +9305,10 @@
         <v>17</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9332,10 +9340,10 @@
         <v>17</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9367,10 +9375,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9402,10 +9410,10 @@
         <v>17</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9437,10 +9445,10 @@
         <v>17</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9472,10 +9480,10 @@
         <v>17</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9507,10 +9515,10 @@
         <v>17</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9542,10 +9550,10 @@
         <v>17</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9577,10 +9585,10 @@
         <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>812</v>
+        <v>865</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9612,10 +9620,10 @@
         <v>17</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9647,10 +9655,10 @@
         <v>17</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9682,10 +9690,10 @@
         <v>17</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9717,7 +9725,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>493</v>
@@ -9752,7 +9760,7 @@
         <v>17</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>39</v>
@@ -9787,7 +9795,7 @@
         <v>17</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>39</v>
@@ -9822,7 +9830,7 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>594</v>
@@ -9857,10 +9865,10 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9892,10 +9900,10 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9927,10 +9935,10 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9962,10 +9970,10 @@
         <v>17</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9997,10 +10005,10 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -10032,10 +10040,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -10067,10 +10075,10 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -10102,10 +10110,10 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -10137,10 +10145,10 @@
         <v>17</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -10172,10 +10180,10 @@
         <v>17</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10207,10 +10215,10 @@
         <v>17</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10239,10 +10247,10 @@
         <v>17</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10250,7 +10258,7 @@
         <v>645</v>
       </c>
       <c r="B82" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="C82" t="s">
         <v>643</v>
@@ -10268,13 +10276,13 @@
         <v>137</v>
       </c>
       <c r="I82" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10303,10 +10311,10 @@
         <v>17</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10335,10 +10343,10 @@
         <v>17</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10367,10 +10375,10 @@
         <v>17</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10399,10 +10407,10 @@
         <v>17</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -10431,10 +10439,10 @@
         <v>17</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10463,10 +10471,10 @@
         <v>17</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10474,7 +10482,7 @@
         <v>671</v>
       </c>
       <c r="B89" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="C89" t="s">
         <v>669</v>
@@ -10495,10 +10503,10 @@
         <v>364</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -10527,10 +10535,10 @@
         <v>364</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -10559,10 +10567,10 @@
         <v>364</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -10591,10 +10599,10 @@
         <v>364</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -10660,10 +10668,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C2" t="s">
         <v>684</v>
@@ -10684,7 +10692,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -10772,7 +10780,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
